--- a/DigiKey BOM.xlsx
+++ b/DigiKey BOM.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+  <si>
+    <t>Country of Origin may be different at time of shipment.</t>
+  </si>
+  <si>
+    <t>The HTSUS and ECCN information shown is for informational purposes only and is not a representation or warranty as to the accuracy or reliability of these classifications. All information is provided "as is" and is subject to change without notice. Any use made of the information provided is without recourse to Digi-Key and at the user's risk.</t>
+  </si>
   <si>
     <t>Index</t>
   </si>
@@ -26,21 +32,90 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
     <t>Availability</t>
   </si>
   <si>
     <t>Stock Status</t>
   </si>
   <si>
+    <t>Assemblies</t>
+  </si>
+  <si>
+    <t>Attrition %</t>
+  </si>
+  <si>
+    <t>Requested Quantity 1</t>
+  </si>
+  <si>
+    <t>Pack Quantity 1</t>
+  </si>
+  <si>
+    <t>Pack Type 1</t>
+  </si>
+  <si>
+    <t>Digi-Key Part Number 1</t>
+  </si>
+  <si>
+    <t>Unit Price 1</t>
+  </si>
+  <si>
+    <t>Extended Price 1</t>
+  </si>
+  <si>
+    <t>Minimum Order Quantity 1</t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>Requested Part Number</t>
+  </si>
+  <si>
+    <t>Lead Weeks</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
     <t>Reference Designator</t>
   </si>
   <si>
     <t>US Import Tariff</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Part Status</t>
   </si>
   <si>
+    <t>RoHS Status</t>
+  </si>
+  <si>
+    <t>Moisture Sensitivity Level (MSL)</t>
+  </si>
+  <si>
+    <t>ECCN</t>
+  </si>
+  <si>
+    <t>HTSUS</t>
+  </si>
+  <si>
+    <t>Country of Origin</t>
+  </si>
+  <si>
+    <t>Environmental Information</t>
+  </si>
+  <si>
+    <t>Original Part numbers</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>Product Notes</t>
   </si>
   <si>
@@ -53,13 +128,31 @@
     <t>TERM BLK 3P SIDE ENT 2.54MM PCB</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>12,500</t>
   </si>
   <si>
     <t>In Stock</t>
   </si>
   <si>
-    <t/>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>ED10562-ND</t>
+  </si>
+  <si>
+    <t>1.26000</t>
+  </si>
+  <si>
+    <t>$2.52</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/1123/OSTVNXXA150.pdf</t>
   </si>
   <si>
     <t>May apply on shipments to the U.S.</t>
@@ -68,6 +161,27 @@
     <t>Active</t>
   </si>
   <si>
+    <t>ROHS3 Compliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  (Unlimited)</t>
+  </si>
+  <si>
+    <t>EAR99</t>
+  </si>
+  <si>
+    <t>8536.90.4000</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>https://www.on-shore.com/wp-content/uploads/RoHS3_REACH-STATEMENT-250.pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/391/OSTVN03A150.jpg</t>
+  </si>
+  <si>
     <t>OSTVN02A150</t>
   </si>
   <si>
@@ -77,6 +191,18 @@
     <t>17,626</t>
   </si>
   <si>
+    <t>ED10561-ND</t>
+  </si>
+  <si>
+    <t>0.87000</t>
+  </si>
+  <si>
+    <t>$1.74</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/410/OSTVN02A150.JPG</t>
+  </si>
+  <si>
     <t>10118194-0001LF</t>
   </si>
   <si>
@@ -89,6 +215,33 @@
     <t>127,424</t>
   </si>
   <si>
+    <t>Cut Tape (CT)</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
+  </si>
+  <si>
+    <t>0.43000</t>
+  </si>
+  <si>
+    <t>$0.86</t>
+  </si>
+  <si>
+    <t>609-4618-2-ND</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/documentation/datasheet/inputoutput/io_usb_micro.pdf</t>
+  </si>
+  <si>
+    <t>8536.69.4040</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/525/10118194-0001LF.JPG</t>
+  </si>
+  <si>
     <t>5999</t>
   </si>
   <si>
@@ -101,9 +254,33 @@
     <t>29</t>
   </si>
   <si>
+    <t>1528-5999-ND</t>
+  </si>
+  <si>
+    <t>4.50000</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>8471.80.1000</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/derivates/6/003/215/769/MFG_5999_web%28640x640%29.jpg</t>
+  </si>
+  <si>
     <t>SJ-3566AN</t>
   </si>
   <si>
@@ -114,6 +291,72 @@
   </si>
   <si>
     <t>597</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>CP-SJ-3566AN-ND</t>
+  </si>
+  <si>
+    <t>1.79000</t>
+  </si>
+  <si>
+    <t>$3.58</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/discontinued/sj-356xn.pdf</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>8536.69.4020</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/material-compliance/sj-3566an</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/23/MFG_SJ-356XN.jpg</t>
+  </si>
+  <si>
+    <t>RS02B12R00FE70</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RES 12 OHM 3W 1% WW AXIAL</t>
+  </si>
+  <si>
+    <t>4,923</t>
+  </si>
+  <si>
+    <t>RSB-12RCT-ND</t>
+  </si>
+  <si>
+    <t>2.83000</t>
+  </si>
+  <si>
+    <t>$5.66</t>
+  </si>
+  <si>
+    <t>RSB-12RTR-ND</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/30204/rsns.pdf</t>
+  </si>
+  <si>
+    <t>8533.21.0080</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/derivates/6/010/196/904/RS01AR3300FE70_web%28640x640%29.jpg</t>
   </si>
 </sst>
 </file>
@@ -159,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -169,195 +412,712 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>15</v>
+      <c r="A2" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>15</v>
+      <c r="T3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="0">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="0">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="0">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>15</v>
+      <c r="B8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="0">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="0">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T4" r:id="rId1"/>
+    <hyperlink ref="AF4" r:id="rId2"/>
+    <hyperlink ref="T5" r:id="rId3"/>
+    <hyperlink ref="AF5" r:id="rId4"/>
+    <hyperlink ref="T6" r:id="rId5"/>
+    <hyperlink ref="AF6" r:id="rId6"/>
+    <hyperlink ref="AF7" r:id="rId7"/>
+    <hyperlink ref="T8" r:id="rId8"/>
+    <hyperlink ref="AF8" r:id="rId9"/>
+    <hyperlink ref="T9" r:id="rId10"/>
+    <hyperlink ref="AF9" r:id="rId11"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>